--- a/docs/ST4/ST4_31.07.24_output.xlsx
+++ b/docs/ST4/ST4_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,916 +505,1085 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731446384.0318289</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731446387.7616265</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731446384.0318289.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731446387.7616265.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.08</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.670000000000016</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731446404.3456535</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731446405.9063132</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731446404.3456535.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731446405.9063132.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>288.93</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731446409.3866692</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731446410.1500218</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446409.3866692.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446410.1500218.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>133.92</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.64</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731446420.047851</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731446421.6075723</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446420.047851.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731446421.6075723.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>133.99</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>133.52</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731446444.795972</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731446446.4644625</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446444.795972.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446446.4644625.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6808</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6796.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731446448.829508</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731446450.423549</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446448.829508.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731446450.423549.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6756.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6770</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>13.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731446471.0404377</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731446472.1550965</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731446471.0404377.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731446472.1550965.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>515.45</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>514.35</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731446485.6475496</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731446488.7508981</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731446485.6475496.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731446488.7508981.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1053.6</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1042.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11.19999999999982</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731446516.1465533</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731446518.4299092</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731446516.1465533.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731446518.4299092.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>11.971</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>11.969</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.002000000000000668</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731446523.3608494</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731446524.2716038</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731446523.3608494.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731446524.2716038.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>11.922</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>11.915</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.00700000000000145</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731446531.3708448</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731446531.3708448.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731446531.3708448.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>11.891</v>
       </c>
-      <c r="J13" t="n">
-        <v>11.891</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.03200000000000003</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731446544.642037</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731446548.0554676</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731446544.642037.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731446548.0554676.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>128</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>129.58</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.580000000000013</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-1.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731446593.9040797</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731446594.1588166</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446593.9040797.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446594.1588166.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>50.82</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>50.895</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731446596.2084937</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731446596.7997272</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446596.2084937.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446596.7997272.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>50.8</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>51.23</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4299999999999997</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731446602.396249</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731446606.3133056</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446602.396249.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731446606.3133056.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>50.765</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>50.715</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731446611.7393837</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731446614.0950842</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446611.7393837.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446614.0950842.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1428.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1425.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.600000000000136</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731446618.5879202</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731446620.1499968</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446618.5879202.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446620.1499968.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1417</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1416.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731446628.7135327</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731446631.9014769</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446628.7135327.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731446631.9014769.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1412.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1412.8</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,711 +1591,846 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731446632.7274206</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731446632.7274206.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731446632.7274206.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1412</v>
       </c>
-      <c r="J21" t="n">
-        <v>1412</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="L21" t="n">
+        <v>1416.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.599999999999909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731446654.8544843</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731446654.9040456</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731446654.8544843.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731446654.9040456.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>60.57</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>60.61</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731446664.2292502</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731446665.8935452</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731446664.2292502.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SELG1731446665.8935452.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>58.63</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>57.81</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.8200000000000003</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731446671.466208</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731446672.0924325</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731446671.466208.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/SELG1731446672.0924325.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>58.32</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>58.12</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731446683.2679992</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731446683.2679992.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731446683.2679992.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>58.46</v>
       </c>
-      <c r="J25" t="n">
-        <v>58.46</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.3399999999999963</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731446683.9842708</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731446686.7076595</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446683.9842708.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446686.7076595.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>142.46</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>142.86</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.4000000000000057</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731446692.1502736</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731446693.131188</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446692.1502736.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446693.131188.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>143.28</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>142.94</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731446694.609686</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731446698.0883818</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446694.609686.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731446698.0883818.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>143.5</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>143.94</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731446741.2556612</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731446741.8285136</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731446741.2556612.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731446741.8285136.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>375.58</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>374.45</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.129999999999995</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731446742.4172761</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731446743.610997</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731446742.4172761.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731446743.610997.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>376.63</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>374.44</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.189999999999998</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731446754.883842</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731446754.883842.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731446754.883842.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>376.58</v>
       </c>
-      <c r="J31" t="n">
-        <v>376.58</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>376.43</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731446755.392486</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731446756.5582712</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446755.392486.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446756.5582712.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.09754</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.0006400000000000017</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731446757.3552873</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731446759.004274</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446757.3552873.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446759.004274.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>0.09832</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.09822</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731446763.2744389</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731446768.4972668</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446763.2744389.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446768.4972668.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>0.09874000000000001</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.09950000000000001</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.0007599999999999968</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731446769.0910623</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731446770.104056</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446769.0910623.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/FEES1731446770.104056.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.10018</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.0005000000000000004</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2154,6 +2473,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2162,13 +2491,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.800000000000182</v>
+        <v>6.400000000000091</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4500000000000455</v>
+        <v>1.600000000000023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -2186,6 +2521,12 @@
       <c r="D3" t="n">
         <v>0.000120000000000002</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2194,13 +2535,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.319999999999993</v>
+        <v>3.46999999999997</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.106666666666664</v>
+        <v>1.156666666666657</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -2210,13 +2557,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005000000000000782</v>
+        <v>-0.03700000000000081</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001666666666666927</v>
+        <v>-0.0123333333333336</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
@@ -2234,6 +2587,12 @@
       <c r="D6" t="n">
         <v>0.1516666666666685</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2242,13 +2601,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.020000000000003</v>
+        <v>0.6800000000000068</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.340000000000001</v>
+        <v>0.2266666666666689</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -2266,6 +2631,12 @@
       <c r="D8" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="E8" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2282,6 +2653,12 @@
       <c r="D9" t="n">
         <v>0.375</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2298,6 +2675,12 @@
       <c r="D10" t="n">
         <v>12.5</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2314,6 +2697,12 @@
       <c r="D11" t="n">
         <v>1.175000000000011</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2330,6 +2719,12 @@
       <c r="D12" t="n">
         <v>0.03999999999999915</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2346,6 +2741,12 @@
       <c r="D13" t="n">
         <v>-1.580000000000013</v>
       </c>
+      <c r="E13" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2362,6 +2763,12 @@
       <c r="D14" t="n">
         <v>11.19999999999982</v>
       </c>
+      <c r="E14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2378,6 +2785,12 @@
       <c r="D15" t="n">
         <v>1.100000000000023</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2392,6 +2805,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
